--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C2E08-419D-F846-9E98-0A04C4C26289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8788197-23F1-F44A-A776-B8D90B837D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="8040" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
     <sheet name="Subnet1" sheetId="2" r:id="rId2"/>
-    <sheet name="LossRecord" sheetId="3" r:id="rId3"/>
+    <sheet name="Subnet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Subnet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Subnet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Subnet5" sheetId="8" r:id="rId6"/>
+    <sheet name="LossRecord" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -64,9 +68,6 @@
   </si>
   <si>
     <t>Residual</t>
-  </si>
-  <si>
-    <t>phi</t>
   </si>
   <si>
     <t>xavier_uniform</t>
@@ -100,6 +101,41 @@
   </si>
   <si>
     <t>Result/Expr2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain_Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum_Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100,550,400,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
+    <t>1,2,4,8,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,200,200,200,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +241,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,15 +562,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -548,22 +593,37 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -574,29 +634,44 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2">
         <v>5000</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="K3" s="5"/>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>2400</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="P3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -606,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -629,43 +704,17 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -675,6 +724,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE778F-A6D9-2F47-9388-7733BAB83EDA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8F8F6F-0E6B-A64A-BC54-912B96CEA273}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6662794F-BD4B-924C-BBDC-192DA92F92B6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C1D809-E4E0-D04E-849F-59BB3FBB4AD5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D143"/>
   <sheetViews>
@@ -686,16 +911,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8788197-23F1-F44A-A776-B8D90B837D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289A4CD-A21B-FE4F-890F-F35AE592C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28880" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -128,14 +128,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>1,2,4,8,16</t>
+    <t>2,200,200,200,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,200,200,200,1</t>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,8,16,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinc_psi,sinc_psi,sinc_psi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xavier_uniform</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -628,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -655,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>5000</v>
@@ -665,6 +674,9 @@
       </c>
       <c r="N2">
         <v>2400</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>21</v>
@@ -684,7 +696,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -705,13 +717,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -728,7 +740,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -749,10 +761,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -772,7 +784,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -793,10 +805,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -816,7 +828,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -837,10 +849,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -859,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C1D809-E4E0-D04E-849F-59BB3FBB4AD5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -881,10 +893,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>

--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,7 +62,6 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="4"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
@@ -526,8 +525,8 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -671,7 +670,7 @@
         </is>
       </c>
       <c r="I2" s="7" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>7</v>
@@ -728,7 +727,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,125 +1065,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.612060546875</v>
+        <v>39.1499277750651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2431457191705704</v>
+        <v>0.242226704955101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2429329007863998</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>100</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.331708908081055</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1273462474346161</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.128337999433279</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>200</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3119277358055115</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1215055622160435</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1223869614303112</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>300</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.267767608165741</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1212672460824251</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1221108242869377</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>400</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2607336342334747</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1212677504867315</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.122091618180275</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>500</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2571265995502472</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1212498091161251</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1220652423799038</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>600</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2512902617454529</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1211996179074049</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1220095060765743</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>700</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2583662569522858</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1211128320544958</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1219196043908596</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>800</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.2503403723239899</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1209948800504208</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1217956036329269</v>
+        <v>0.2433707863092422</v>
       </c>
     </row>
   </sheetData>

--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -1030,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,230 @@
         <v>0.2433707863092422</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33.99727630615234</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2266322076320648</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2277151942253113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.46983846028646</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2004599422216415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2014323472976685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.181502978006999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1298563033342361</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.130395919084549</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5024274587631226</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.125079557299614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1254618316888809</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1708832979202271</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1235957816243172</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1239218190312386</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1147685448328654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1230895817279816</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.123369462788105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>70</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1011597116788228</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1228891983628273</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1231511607766151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>80</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.09561462203661601</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1228009387850761</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230521276593208</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>90</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.09143257141113281</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1227605193853378</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1230021268129349</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08840362230936687</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1227415204048157</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1229730248451233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>110</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.08807032306989034</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.122734010219574</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.122957281768322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>120</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.08586707711219788</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1227302998304367</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1229487881064415</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>130</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.08605967958768208</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1227256804704666</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1229415163397789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>140</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.08560213446617126</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1227181702852249</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1229327023029327</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>150</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.08492969473203023</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1227051392197609</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1229194328188896</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>160</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.08523546655972798</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1226865351200104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1229005977511406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC0274-F950-4A40-B95F-42FCC99BC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798087B-D345-B843-B6CD-5B3DB51C7E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,61 +91,62 @@
     <t>src_lam/possion_domain.py</t>
   </si>
   <si>
+    <t>data/possion_2d/holes/train_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/val_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/test_loader.pt</t>
+  </si>
+  <si>
+    <t>1,2,4,8,16</t>
+  </si>
+  <si>
+    <t>1100,550,550,400</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>0,2000,5000</t>
+  </si>
+  <si>
+    <t>Layer_Set</t>
+  </si>
+  <si>
+    <t>Act_Set</t>
+  </si>
+  <si>
+    <t>Ini_Set</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>2,200,200,200,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
+    <t>xavier_uniform</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>valid_loss</t>
+  </si>
+  <si>
+    <t>test_loss</t>
+  </si>
+  <si>
     <t>Result/Expr2_1</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/test_loader.pt</t>
-  </si>
-  <si>
-    <t>1,2,4,8,16</t>
-  </si>
-  <si>
-    <t>1100,550,550,400</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>0,2000,5000</t>
-  </si>
-  <si>
-    <t>Layer_Set</t>
-  </si>
-  <si>
-    <t>Act_Set</t>
-  </si>
-  <si>
-    <t>Ini_Set</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>2,200,200,200,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>xavier_uniform</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
-  </si>
-  <si>
-    <t>test_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,7 +586,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,16 +668,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -694,22 +695,22 @@
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="6">
         <v>5000</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="6">
         <v>2400</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -733,27 +734,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -777,27 +778,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -821,27 +822,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -865,27 +866,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -909,27 +910,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -951,16 +952,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -1,214 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552380D9-F4FA-7A43-A562-9021AAD2B434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SET" sheetId="1" r:id="rId1"/>
-    <sheet name="Subnet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Subnet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Subnet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Subnet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Subnet5" sheetId="6" r:id="rId6"/>
-    <sheet name="LossRecord" sheetId="7" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LossRecord" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>SEED</t>
-  </si>
-  <si>
-    <t>PDE_Solver</t>
-  </si>
-  <si>
-    <t>Save_Path</t>
-  </si>
-  <si>
-    <t>Train_Dataset</t>
-  </si>
-  <si>
-    <t>Valid_Dataset</t>
-  </si>
-  <si>
-    <t>Test_Dataset</t>
-  </si>
-  <si>
-    <t>Batch_size</t>
-  </si>
-  <si>
-    <t>Mu</t>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Sub_number</t>
-  </si>
-  <si>
-    <t>Scale_Coeff</t>
-  </si>
-  <si>
-    <t>Sum_Samples</t>
-  </si>
-  <si>
-    <t>Boundary</t>
-  </si>
-  <si>
-    <t>Domain_Numbers</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Con_record</t>
-  </si>
-  <si>
-    <t>mscalenn2</t>
-  </si>
-  <si>
-    <t>src_lam/possion_domain.py</t>
-  </si>
-  <si>
-    <t>Result/Expr2_1</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/test_loader.pt</t>
-  </si>
-  <si>
-    <t>1,2,4,8,16</t>
-  </si>
-  <si>
-    <t>1100,550,550,400</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>0,2000,5000</t>
-  </si>
-  <si>
-    <t>Layer_Set</t>
-  </si>
-  <si>
-    <t>Act_Set</t>
-  </si>
-  <si>
-    <t>Ini_Set</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>2,200,200,200,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>xavier_uniform</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
-  </si>
-  <si>
-    <t>test_loss</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,40 +101,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -272,16 +151,75 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -581,148 +519,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="8" bestFit="1" customWidth="1"/>
+    <col width="10.83203125" customWidth="1" style="6" min="6" max="6"/>
+    <col width="17.5" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>SEED</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>PDE_Solver</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Save_Path</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Train_Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Valid_Dataset</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Test_Dataset</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>Batch_size</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>Mu</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>Sub_number</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>Scale_Coeff</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>Sum_Samples</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>Boundary</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>Domain_Numbers</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Con_record</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>mscalenn2</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>src_lam/possion_domain.py</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Result/Expr2_1</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>data/possion_2d/holes/train_loader.pt</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>data/possion_2d/holes/val_loader.pt</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>data/possion_2d/holes/test_loader.pt</t>
+        </is>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="K2" s="1" t="n">
+        <v>5200</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5200</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6">
-        <v>5200</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="6">
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>1,2,4,8,16</t>
+        </is>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>1100,550,550,400</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="n">
         <v>2400</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="S3" s="4"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>0,2000,5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="S3" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -731,42 +734,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>2,200,200,200,1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -775,42 +795,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>2,200,200,200,1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -819,42 +856,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>2,200,200,200,1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -863,42 +917,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>2,200,200,200,1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -907,66 +978,118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>2,200,200,200,1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>39</v>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>train_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>valid_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>test_loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>118.3548049926758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2384821094572544</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2396102070808411</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>49.06006240844727</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1604676336050034</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1611721724271774</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD53E8F-3878-5D44-B5A5-BE321D4AAF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB3CE7-3927-814C-9089-201AEE192112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -145,7 +145,11 @@
     <t>test_loss</t>
   </si>
   <si>
-    <t>0,5000,1000</t>
+    <t>Fig_Record_Interve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5000,10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="S1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -595,7 +599,7 @@
     <col min="16" max="16" width="17.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -653,8 +657,11 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -710,10 +717,13 @@
         <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>40</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="S3" s="4"/>
     </row>
   </sheetData>
@@ -944,9 +954,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
@@ -964,34 +976,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>118.3548049926758</v>
-      </c>
-      <c r="C2">
-        <v>0.2384821094572544</v>
-      </c>
-      <c r="D2">
-        <v>0.2396102070808411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>49.060062408447273</v>
-      </c>
-      <c r="C3">
-        <v>0.16046763360500341</v>
-      </c>
-      <c r="D3">
-        <v>0.16117217242717741</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Expr2d/Expr_1.xlsx
+++ b/Expr2d/Expr_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB3CE7-3927-814C-9089-201AEE192112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC375CC0-6026-5141-BECC-1A42DFC8081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,5000,10000</t>
+    <t>0,15000,30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +590,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="S1:T2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="1">
-        <v>10100</v>
+        <v>30100</v>
       </c>
       <c r="L2" s="1">
         <v>1000</v>
